--- a/Time_kill/ClassicalTK/summary_statistics.xlsx
+++ b/Time_kill/ClassicalTK/summary_statistics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5904" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6888" uniqueCount="1056">
   <si>
     <t>experiment</t>
   </si>
@@ -2573,6 +2573,615 @@
   </si>
   <si>
     <t>0.0418718849626502</t>
+  </si>
+  <si>
+    <t>3.76239848710278</t>
+  </si>
+  <si>
+    <t>0.601220089903936</t>
+  </si>
+  <si>
+    <t>-0.895005967101213</t>
+  </si>
+  <si>
+    <t>0.0000251852181083119</t>
+  </si>
+  <si>
+    <t>0.000024686301640481</t>
+  </si>
+  <si>
+    <t>0.283474232699974</t>
+  </si>
+  <si>
+    <t>0.0151345458005361</t>
+  </si>
+  <si>
+    <t>0.0188760787634317</t>
+  </si>
+  <si>
+    <t>0.000000840668527606113</t>
+  </si>
+  <si>
+    <t>0.000000827359567586931</t>
+  </si>
+  <si>
+    <t>13.2724532006578</t>
+  </si>
+  <si>
+    <t>39.7250170456149</t>
+  </si>
+  <si>
+    <t>-47.4148247799798</t>
+  </si>
+  <si>
+    <t>29.9585595050516</t>
+  </si>
+  <si>
+    <t>29.8374523092551</t>
+  </si>
+  <si>
+    <t>0.000000000000000000000000000000000000000334449716574382</t>
+  </si>
+  <si>
+    <t>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000034038324258245</t>
+  </si>
+  <si>
+    <t>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000127715777534423</t>
+  </si>
+  <si>
+    <t>3.20679920046571</t>
+  </si>
+  <si>
+    <t>0.571556925212513</t>
+  </si>
+  <si>
+    <t>-0.932002401646881</t>
+  </si>
+  <si>
+    <t>0.0000235375380712676</t>
+  </si>
+  <si>
+    <t>0.000023064706685746</t>
+  </si>
+  <si>
+    <t>4.31799777373985</t>
+  </si>
+  <si>
+    <t>0.630883254595359</t>
+  </si>
+  <si>
+    <t>-0.858009532555545</t>
+  </si>
+  <si>
+    <t>0.0000268328981453562</t>
+  </si>
+  <si>
+    <t>0.000026307896595216</t>
+  </si>
+  <si>
+    <t>3.56439681670231</t>
+  </si>
+  <si>
+    <t>0.605384701912654</t>
+  </si>
+  <si>
+    <t>-0.934317020473286</t>
+  </si>
+  <si>
+    <t>0.0000258495347283292</t>
+  </si>
+  <si>
+    <t>0.000024315184268036</t>
+  </si>
+  <si>
+    <t>3.34374418934648</t>
+  </si>
+  <si>
+    <t>0.528363455339775</t>
+  </si>
+  <si>
+    <t>-0.156655104030449</t>
+  </si>
+  <si>
+    <t>0.116306749965704</t>
+  </si>
+  <si>
+    <t>0.171565605260359</t>
+  </si>
+  <si>
+    <t>1.50572611912247</t>
+  </si>
+  <si>
+    <t>0.610719377425578</t>
+  </si>
+  <si>
+    <t>-2.18440913349721</t>
+  </si>
+  <si>
+    <t>0.000830636778251537</t>
+  </si>
+  <si>
+    <t>0.000447362923193847</t>
+  </si>
+  <si>
+    <t>0.93917392129878</t>
+  </si>
+  <si>
+    <t>0.629226558253791</t>
+  </si>
+  <si>
+    <t>-2.07337357902433</t>
+  </si>
+  <si>
+    <t>0.113416831632534</t>
+  </si>
+  <si>
+    <t>0.0368717416337669</t>
+  </si>
+  <si>
+    <t>0.287858706548705</t>
+  </si>
+  <si>
+    <t>0.016625438172692</t>
+  </si>
+  <si>
+    <t>0.0163683658838455</t>
+  </si>
+  <si>
+    <t>0.000000913528284410807</t>
+  </si>
+  <si>
+    <t>0.000000897113462209114</t>
+  </si>
+  <si>
+    <t>0.761190716944056</t>
+  </si>
+  <si>
+    <t>0.0166925226158584</t>
+  </si>
+  <si>
+    <t>0.020325207025264</t>
+  </si>
+  <si>
+    <t>0.00913793156435046</t>
+  </si>
+  <si>
+    <t>0.0156441484253519</t>
+  </si>
+  <si>
+    <t>0.135805747339667</t>
+  </si>
+  <si>
+    <t>0.044594256491167</t>
+  </si>
+  <si>
+    <t>0.0575818523407432</t>
+  </si>
+  <si>
+    <t>0.0000595785637304005</t>
+  </si>
+  <si>
+    <t>0.0000399479804537159</t>
+  </si>
+  <si>
+    <t>0.0491622425035722</t>
+  </si>
+  <si>
+    <t>0.0308830483452999</t>
+  </si>
+  <si>
+    <t>0.0447287801225214</t>
+  </si>
+  <si>
+    <t>0.00717605501623835</t>
+  </si>
+  <si>
+    <t>0.00296964028895588</t>
+  </si>
+  <si>
+    <t>12.3824526950663</t>
+  </si>
+  <si>
+    <t>36.4131576939141</t>
+  </si>
+  <si>
+    <t>-57.0806534447887</t>
+  </si>
+  <si>
+    <t>28.2963704238246</t>
+  </si>
+  <si>
+    <t>27.1038004581501</t>
+  </si>
+  <si>
+    <t>4.39278109272085</t>
+  </si>
+  <si>
+    <t>31.6527026800499</t>
+  </si>
+  <si>
+    <t>-7.70742968746782</t>
+  </si>
+  <si>
+    <t>12.7279077487786</t>
+  </si>
+  <si>
+    <t>10.9667589820569</t>
+  </si>
+  <si>
+    <t>11.0873519613015</t>
+  </si>
+  <si>
+    <t>13.6950232043121</t>
+  </si>
+  <si>
+    <t>-37.9357218411606</t>
+  </si>
+  <si>
+    <t>13.941873154416</t>
+  </si>
+  <si>
+    <t>11.1986367799535</t>
+  </si>
+  <si>
+    <t>19.1035614624483</t>
+  </si>
+  <si>
+    <t>20.3744964298368</t>
+  </si>
+  <si>
+    <t>-46.3543511212452</t>
+  </si>
+  <si>
+    <t>15.8048999590846</t>
+  </si>
+  <si>
+    <t>12.4162316125941</t>
+  </si>
+  <si>
+    <t>0.0000000000000000000000000000000000325248769916154</t>
+  </si>
+  <si>
+    <t>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000263577177436128</t>
+  </si>
+  <si>
+    <t>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000383019928627502</t>
+  </si>
+  <si>
+    <t>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000888143785713507</t>
+  </si>
+  <si>
+    <t>0.0000111909796219353</t>
+  </si>
+  <si>
+    <t>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000696095349197519</t>
+  </si>
+  <si>
+    <t>0.0000000000000128376993121768</t>
+  </si>
+  <si>
+    <t>0.000000000000000000000000000000000000413779005251198</t>
+  </si>
+  <si>
+    <t>0.00000000000000000000000000055216276209448</t>
+  </si>
+  <si>
+    <t>0.000000000000000000000000000144502106952853</t>
+  </si>
+  <si>
+    <t>0.00000000000000000000000000000000000000000108725615581365</t>
+  </si>
+  <si>
+    <t>0.0000000000000000000000000000000000000000000352564119632215</t>
+  </si>
+  <si>
+    <t>0.0000000000000000000000000000414055808308702</t>
+  </si>
+  <si>
+    <t>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000235837898995414</t>
+  </si>
+  <si>
+    <t>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000281596855301544</t>
+  </si>
+  <si>
+    <t>0.0000000000000000000000000000000000000000000000000000000287846881743918</t>
+  </si>
+  <si>
+    <t>0.0000000000000000000000000000000000213377749259405</t>
+  </si>
+  <si>
+    <t>3.00020411923056</t>
+  </si>
+  <si>
+    <t>0.57279944186698</t>
+  </si>
+  <si>
+    <t>-0.966398428091397</t>
+  </si>
+  <si>
+    <t>0.0000240590521920254</t>
+  </si>
+  <si>
+    <t>0.0000225568741920601</t>
+  </si>
+  <si>
+    <t>1.85183779876991</t>
+  </si>
+  <si>
+    <t>0.495646712201573</t>
+  </si>
+  <si>
+    <t>-0.196491777778287</t>
+  </si>
+  <si>
+    <t>0.0983967332063858</t>
+  </si>
+  <si>
+    <t>0.14090363777787</t>
+  </si>
+  <si>
+    <t>1.23955174544318</t>
+  </si>
+  <si>
+    <t>0.523316240785549</t>
+  </si>
+  <si>
+    <t>-2.29726749024817</t>
+  </si>
+  <si>
+    <t>0.000713864939089327</t>
+  </si>
+  <si>
+    <t>0.000369066320249453</t>
+  </si>
+  <si>
+    <t>0.842817696592555</t>
+  </si>
+  <si>
+    <t>0.568696895764193</t>
+  </si>
+  <si>
+    <t>-2.16104037713688</t>
+  </si>
+  <si>
+    <t>0.0993520222496292</t>
+  </si>
+  <si>
+    <t>0.0310513536203743</t>
+  </si>
+  <si>
+    <t>4.12858951417406</t>
+  </si>
+  <si>
+    <t>0.637969961958327</t>
+  </si>
+  <si>
+    <t>-0.902235612855175</t>
+  </si>
+  <si>
+    <t>0.0000276400172646331</t>
+  </si>
+  <si>
+    <t>0.0000260734943440119</t>
+  </si>
+  <si>
+    <t>4.83565057992305</t>
+  </si>
+  <si>
+    <t>0.561080198477978</t>
+  </si>
+  <si>
+    <t>-0.116818430282611</t>
+  </si>
+  <si>
+    <t>0.134216766725023</t>
+  </si>
+  <si>
+    <t>0.202227572742848</t>
+  </si>
+  <si>
+    <t>1.77190049280177</t>
+  </si>
+  <si>
+    <t>0.698122514065606</t>
+  </si>
+  <si>
+    <t>-2.07155077674625</t>
+  </si>
+  <si>
+    <t>0.000947408617413746</t>
+  </si>
+  <si>
+    <t>0.00052565952613824</t>
+  </si>
+  <si>
+    <t>1.03553014600501</t>
+  </si>
+  <si>
+    <t>0.689756220743388</t>
+  </si>
+  <si>
+    <t>-1.98570678091178</t>
+  </si>
+  <si>
+    <t>0.127481641015439</t>
+  </si>
+  <si>
+    <t>0.0426921296471595</t>
+  </si>
+  <si>
+    <t>1.58132347918508</t>
+  </si>
+  <si>
+    <t>0.595535780039217</t>
+  </si>
+  <si>
+    <t>-2.07707067828287</t>
+  </si>
+  <si>
+    <t>0.000945092381807457</t>
+  </si>
+  <si>
+    <t>0.000487049608132729</t>
+  </si>
+  <si>
+    <t>0.947714071165191</t>
+  </si>
+  <si>
+    <t>0.61609592474704</t>
+  </si>
+  <si>
+    <t>-2.09313331360134</t>
+  </si>
+  <si>
+    <t>0.116831085093526</t>
+  </si>
+  <si>
+    <t>0.0373787998401859</t>
+  </si>
+  <si>
+    <t>0.130310935826569</t>
+  </si>
+  <si>
+    <t>0.0394674289419846</t>
+  </si>
+  <si>
+    <t>0.0447381849737195</t>
+  </si>
+  <si>
+    <t>0.0000579014242132466</t>
+  </si>
+  <si>
+    <t>0.0000393257411254354</t>
+  </si>
+  <si>
+    <t>0.0476889817736578</t>
+  </si>
+  <si>
+    <t>0.0295535793358404</t>
+  </si>
+  <si>
+    <t>0.0434124116825377</t>
+  </si>
+  <si>
+    <t>0.00704419168285652</t>
+  </si>
+  <si>
+    <t>0.00289685189430863</t>
+  </si>
+  <si>
+    <t>12.1350020944494</t>
+  </si>
+  <si>
+    <t>15.0892975804081</t>
+  </si>
+  <si>
+    <t>-46.4272450816457</t>
+  </si>
+  <si>
+    <t>16.3224375678006</t>
+  </si>
+  <si>
+    <t>12.3850077377871</t>
+  </si>
+  <si>
+    <t>19.872809943044</t>
+  </si>
+  <si>
+    <t>20.8467447460715</t>
+  </si>
+  <si>
+    <t>-48.2150894750518</t>
+  </si>
+  <si>
+    <t>16.5854494530378</t>
+  </si>
+  <si>
+    <t>12.9032484931739</t>
+  </si>
+  <si>
+    <t>0.000000000000000000000000000000000689082414778307</t>
+  </si>
+  <si>
+    <t>0.00000000000000000000000000000000000000000000000000190459073184156</t>
+  </si>
+  <si>
+    <t>0.00000000000000000000000000000000000000000000000000000000000683509652227082</t>
+  </si>
+  <si>
+    <t>0.0000000000000000000000000000000000315054506430196</t>
+  </si>
+  <si>
+    <t>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000699741349800729</t>
+  </si>
+  <si>
+    <t>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000163151423921141</t>
+  </si>
+  <si>
+    <t>0.0000000000000000000000000000000000000000000000000000000000000887988830858771</t>
+  </si>
+  <si>
+    <t>0.0000000000000000000000000000000000000431515668955799</t>
+  </si>
+  <si>
+    <t>1.3259187381733</t>
+  </si>
+  <si>
+    <t>0.518181040750533</t>
+  </si>
+  <si>
+    <t>-2.16475590956505</t>
+  </si>
+  <si>
+    <t>0.000831607675695919</t>
+  </si>
+  <si>
+    <t>0.00040997257186153</t>
+  </si>
+  <si>
+    <t>0.854245384429435</t>
+  </si>
+  <si>
+    <t>0.558171973634545</t>
+  </si>
+  <si>
+    <t>-2.17822007698114</t>
+  </si>
+  <si>
+    <t>0.10302472309493</t>
+  </si>
+  <si>
+    <t>0.0317010744587943</t>
+  </si>
+  <si>
+    <t>1.83672822019687</t>
+  </si>
+  <si>
+    <t>0.6728905193279</t>
+  </si>
+  <si>
+    <t>-1.98938544700069</t>
+  </si>
+  <si>
+    <t>0.001058577087919</t>
+  </si>
+  <si>
+    <t>0.000564126644403928</t>
+  </si>
+  <si>
+    <t>1.04118275790095</t>
+  </si>
+  <si>
+    <t>0.674019875859534</t>
+  </si>
+  <si>
+    <t>-2.00804655022154</t>
+  </si>
+  <si>
+    <t>0.130637447092121</t>
+  </si>
+  <si>
+    <t>0.0430565252215774</t>
   </si>
 </sst>
 </file>
@@ -2638,8 +3247,2960 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5905">
+  <cellXfs count="6889">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
@@ -20670,1069 +24231,1069 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5577" t="s">
+      <c r="A1" s="6561" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5578" t="s">
+      <c r="B1" s="6562" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5579" t="s">
+      <c r="C1" s="6563" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5580" t="s">
+      <c r="D1" s="6564" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5581" t="s">
+      <c r="E1" s="6565" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5582" t="s">
+      <c r="F1" s="6566" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5583" t="s">
+      <c r="G1" s="6567" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5584" t="s">
+      <c r="H1" s="6568" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="5585" t="s">
+      <c r="A2" s="6569" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5625" t="s">
+      <c r="B2" s="6609" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5665" t="s">
+      <c r="C2" s="6649" t="s">
         <v>501</v>
       </c>
-      <c r="D2" s="5705" t="s">
+      <c r="D2" s="6689" t="s">
         <v>541</v>
       </c>
-      <c r="E2" s="5745" t="s">
+      <c r="E2" s="6729" t="s">
         <v>581</v>
       </c>
-      <c r="F2" s="5785" t="s">
+      <c r="F2" s="6769" t="s">
         <v>621</v>
       </c>
-      <c r="G2" s="5825" t="s">
+      <c r="G2" s="6809" t="s">
         <v>655</v>
       </c>
-      <c r="H2" s="5865" t="s">
+      <c r="H2" s="6849" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="5586" t="s">
+      <c r="A3" s="6570" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5626" t="s">
+      <c r="B3" s="6610" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5666" t="s">
+      <c r="C3" s="6650" t="s">
         <v>502</v>
       </c>
-      <c r="D3" s="5706" t="s">
+      <c r="D3" s="6690" t="s">
         <v>542</v>
       </c>
-      <c r="E3" s="5746" t="s">
+      <c r="E3" s="6730" t="s">
         <v>582</v>
       </c>
-      <c r="F3" s="5786" t="s">
+      <c r="F3" s="6770" t="s">
         <v>622</v>
       </c>
-      <c r="G3" s="5826" t="s">
+      <c r="G3" s="6810" t="s">
         <v>656</v>
       </c>
-      <c r="H3" s="5866" t="s">
+      <c r="H3" s="6850" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="5587" t="s">
+      <c r="A4" s="6571" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5627" t="s">
+      <c r="B4" s="6611" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5667" t="s">
+      <c r="C4" s="6651" t="s">
         <v>503</v>
       </c>
-      <c r="D4" s="5707" t="s">
+      <c r="D4" s="6691" t="s">
         <v>543</v>
       </c>
-      <c r="E4" s="5747" t="s">
+      <c r="E4" s="6731" t="s">
         <v>583</v>
       </c>
-      <c r="F4" s="5787" t="s">
+      <c r="F4" s="6771" t="s">
         <v>622</v>
       </c>
-      <c r="G4" s="5827" t="s">
+      <c r="G4" s="6811" t="s">
         <v>657</v>
       </c>
-      <c r="H4" s="5867" t="s">
+      <c r="H4" s="6851" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5588" t="s">
+      <c r="A5" s="6572" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5628" t="s">
+      <c r="B5" s="6612" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5668" t="s">
+      <c r="C5" s="6652" t="s">
         <v>504</v>
       </c>
-      <c r="D5" s="5708" t="s">
+      <c r="D5" s="6692" t="s">
         <v>544</v>
       </c>
-      <c r="E5" s="5748" t="s">
+      <c r="E5" s="6732" t="s">
         <v>584</v>
       </c>
-      <c r="F5" s="5788" t="s">
+      <c r="F5" s="6772" t="s">
         <v>622</v>
       </c>
-      <c r="G5" s="5828" t="s">
+      <c r="G5" s="6812" t="s">
         <v>658</v>
       </c>
-      <c r="H5" s="5868" t="s">
+      <c r="H5" s="6852" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5589" t="s">
+      <c r="A6" s="6573" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5629" t="s">
+      <c r="B6" s="6613" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5669" t="s">
+      <c r="C6" s="6653" t="s">
         <v>505</v>
       </c>
-      <c r="D6" s="5709" t="s">
+      <c r="D6" s="6693" t="s">
         <v>545</v>
       </c>
-      <c r="E6" s="5749" t="s">
+      <c r="E6" s="6733" t="s">
         <v>585</v>
       </c>
-      <c r="F6" s="5789" t="s">
+      <c r="F6" s="6773" t="s">
         <v>623</v>
       </c>
-      <c r="G6" s="5829" t="s">
+      <c r="G6" s="6813" t="s">
         <v>659</v>
       </c>
-      <c r="H6" s="5869" t="s">
+      <c r="H6" s="6853" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="5590" t="s">
+      <c r="A7" s="6574" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5630" t="s">
+      <c r="B7" s="6614" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5670" t="s">
+      <c r="C7" s="6654" t="s">
         <v>506</v>
       </c>
-      <c r="D7" s="5710" t="s">
+      <c r="D7" s="6694" t="s">
         <v>546</v>
       </c>
-      <c r="E7" s="5750" t="s">
+      <c r="E7" s="6734" t="s">
         <v>586</v>
       </c>
-      <c r="F7" s="5790" t="s">
+      <c r="F7" s="6774" t="s">
         <v>624</v>
       </c>
-      <c r="G7" s="5830" t="s">
+      <c r="G7" s="6814" t="s">
         <v>660</v>
       </c>
-      <c r="H7" s="5870" t="s">
+      <c r="H7" s="6854" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="5591" t="s">
+      <c r="A8" s="6575" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5631" t="s">
+      <c r="B8" s="6615" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5671" t="s">
+      <c r="C8" s="6655" t="s">
         <v>507</v>
       </c>
-      <c r="D8" s="5711" t="s">
+      <c r="D8" s="6695" t="s">
         <v>547</v>
       </c>
-      <c r="E8" s="5751" t="s">
+      <c r="E8" s="6735" t="s">
         <v>587</v>
       </c>
-      <c r="F8" s="5791" t="s">
+      <c r="F8" s="6775" t="s">
         <v>622</v>
       </c>
-      <c r="G8" s="5831" t="s">
+      <c r="G8" s="6815" t="s">
         <v>661</v>
       </c>
-      <c r="H8" s="5871" t="s">
+      <c r="H8" s="6855" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="5592" t="s">
+      <c r="A9" s="6576" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5632" t="s">
+      <c r="B9" s="6616" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5672" t="s">
+      <c r="C9" s="6656" t="s">
         <v>508</v>
       </c>
-      <c r="D9" s="5712" t="s">
+      <c r="D9" s="6696" t="s">
         <v>548</v>
       </c>
-      <c r="E9" s="5752" t="s">
+      <c r="E9" s="6736" t="s">
         <v>588</v>
       </c>
-      <c r="F9" s="5792" t="s">
+      <c r="F9" s="6776" t="s">
         <v>625</v>
       </c>
-      <c r="G9" s="5832" t="s">
+      <c r="G9" s="6816" t="s">
         <v>662</v>
       </c>
-      <c r="H9" s="5872" t="s">
+      <c r="H9" s="6856" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5593" t="s">
+      <c r="A10" s="6577" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5633" t="s">
+      <c r="B10" s="6617" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5673" t="s">
+      <c r="C10" s="6657" t="s">
         <v>509</v>
       </c>
-      <c r="D10" s="5713" t="s">
+      <c r="D10" s="6697" t="s">
         <v>549</v>
       </c>
-      <c r="E10" s="5753" t="s">
+      <c r="E10" s="6737" t="s">
         <v>589</v>
       </c>
-      <c r="F10" s="5793" t="s">
+      <c r="F10" s="6777" t="s">
         <v>626</v>
       </c>
-      <c r="G10" s="5833" t="s">
+      <c r="G10" s="6817" t="s">
         <v>663</v>
       </c>
-      <c r="H10" s="5873" t="s">
+      <c r="H10" s="6857" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5594" t="s">
+      <c r="A11" s="6578" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5634" t="s">
+      <c r="B11" s="6618" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5674" t="s">
+      <c r="C11" s="6658" t="s">
         <v>510</v>
       </c>
-      <c r="D11" s="5714" t="s">
+      <c r="D11" s="6698" t="s">
         <v>550</v>
       </c>
-      <c r="E11" s="5754" t="s">
+      <c r="E11" s="6738" t="s">
         <v>590</v>
       </c>
-      <c r="F11" s="5794" t="s">
+      <c r="F11" s="6778" t="s">
         <v>627</v>
       </c>
-      <c r="G11" s="5834" t="s">
+      <c r="G11" s="6818" t="s">
         <v>664</v>
       </c>
-      <c r="H11" s="5874" t="s">
+      <c r="H11" s="6858" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="5595" t="s">
+      <c r="A12" s="6579" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5635" t="s">
+      <c r="B12" s="6619" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5675" t="s">
+      <c r="C12" s="6659" t="s">
         <v>511</v>
       </c>
-      <c r="D12" s="5715" t="s">
+      <c r="D12" s="6699" t="s">
         <v>551</v>
       </c>
-      <c r="E12" s="5755" t="s">
+      <c r="E12" s="6739" t="s">
         <v>591</v>
       </c>
-      <c r="F12" s="5795" t="s">
+      <c r="F12" s="6779" t="s">
         <v>628</v>
       </c>
-      <c r="G12" s="5835" t="s">
+      <c r="G12" s="6819" t="s">
         <v>665</v>
       </c>
-      <c r="H12" s="5875" t="s">
+      <c r="H12" s="6859" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="5596" t="s">
+      <c r="A13" s="6580" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5636" t="s">
+      <c r="B13" s="6620" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="5676" t="s">
+      <c r="C13" s="6660" t="s">
         <v>512</v>
       </c>
-      <c r="D13" s="5716" t="s">
+      <c r="D13" s="6700" t="s">
         <v>552</v>
       </c>
-      <c r="E13" s="5756" t="s">
+      <c r="E13" s="6740" t="s">
         <v>592</v>
       </c>
-      <c r="F13" s="5796" t="s">
+      <c r="F13" s="6780" t="s">
         <v>629</v>
       </c>
-      <c r="G13" s="5836" t="s">
+      <c r="G13" s="6820" t="s">
         <v>666</v>
       </c>
-      <c r="H13" s="5876" t="s">
+      <c r="H13" s="6860" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="5597" t="s">
+      <c r="A14" s="6581" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5637" t="s">
+      <c r="B14" s="6621" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5677" t="s">
+      <c r="C14" s="6661" t="s">
         <v>513</v>
       </c>
-      <c r="D14" s="5717" t="s">
+      <c r="D14" s="6701" t="s">
         <v>553</v>
       </c>
-      <c r="E14" s="5757" t="s">
+      <c r="E14" s="6741" t="s">
         <v>593</v>
       </c>
-      <c r="F14" s="5797" t="s">
+      <c r="F14" s="6781" t="s">
         <v>630</v>
       </c>
-      <c r="G14" s="5837" t="s">
+      <c r="G14" s="6821" t="s">
         <v>667</v>
       </c>
-      <c r="H14" s="5877" t="s">
+      <c r="H14" s="6861" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5598" t="s">
+      <c r="A15" s="6582" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="5638" t="s">
+      <c r="B15" s="6622" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="5678" t="s">
+      <c r="C15" s="6662" t="s">
         <v>514</v>
       </c>
-      <c r="D15" s="5718" t="s">
+      <c r="D15" s="6702" t="s">
         <v>554</v>
       </c>
-      <c r="E15" s="5758" t="s">
+      <c r="E15" s="6742" t="s">
         <v>594</v>
       </c>
-      <c r="F15" s="5798" t="s">
+      <c r="F15" s="6782" t="s">
         <v>631</v>
       </c>
-      <c r="G15" s="5838" t="s">
+      <c r="G15" s="6822" t="s">
         <v>668</v>
       </c>
-      <c r="H15" s="5878" t="s">
+      <c r="H15" s="6862" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="5599" t="s">
+      <c r="A16" s="6583" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="5639" t="s">
+      <c r="B16" s="6623" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="5679" t="s">
+      <c r="C16" s="6663" t="s">
         <v>515</v>
       </c>
-      <c r="D16" s="5719" t="s">
+      <c r="D16" s="6703" t="s">
         <v>555</v>
       </c>
-      <c r="E16" s="5759" t="s">
+      <c r="E16" s="6743" t="s">
         <v>595</v>
       </c>
-      <c r="F16" s="5799" t="s">
+      <c r="F16" s="6783" t="s">
         <v>632</v>
       </c>
-      <c r="G16" s="5839" t="s">
+      <c r="G16" s="6823" t="s">
         <v>669</v>
       </c>
-      <c r="H16" s="5879" t="s">
+      <c r="H16" s="6863" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="5600" t="s">
+      <c r="A17" s="6584" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="5640" t="s">
+      <c r="B17" s="6624" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="5680" t="s">
+      <c r="C17" s="6664" t="s">
         <v>516</v>
       </c>
-      <c r="D17" s="5720" t="s">
+      <c r="D17" s="6704" t="s">
         <v>556</v>
       </c>
-      <c r="E17" s="5760" t="s">
+      <c r="E17" s="6744" t="s">
         <v>596</v>
       </c>
-      <c r="F17" s="5800" t="s">
+      <c r="F17" s="6784" t="s">
         <v>633</v>
       </c>
-      <c r="G17" s="5840" t="s">
+      <c r="G17" s="6824" t="s">
         <v>670</v>
       </c>
-      <c r="H17" s="5880" t="s">
+      <c r="H17" s="6864" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="5601" t="s">
+      <c r="A18" s="6585" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="5641" t="s">
+      <c r="B18" s="6625" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5681" t="s">
+      <c r="C18" s="6665" t="s">
         <v>517</v>
       </c>
-      <c r="D18" s="5721" t="s">
+      <c r="D18" s="6705" t="s">
         <v>557</v>
       </c>
-      <c r="E18" s="5761" t="s">
+      <c r="E18" s="6745" t="s">
         <v>597</v>
       </c>
-      <c r="F18" s="5801" t="s">
+      <c r="F18" s="6785" t="s">
         <v>634</v>
       </c>
-      <c r="G18" s="5841" t="s">
+      <c r="G18" s="6825" t="s">
         <v>671</v>
       </c>
-      <c r="H18" s="5881" t="s">
+      <c r="H18" s="6865" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="5602" t="s">
+      <c r="A19" s="6586" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="5642" t="s">
+      <c r="B19" s="6626" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="5682" t="s">
+      <c r="C19" s="6666" t="s">
         <v>518</v>
       </c>
-      <c r="D19" s="5722" t="s">
+      <c r="D19" s="6706" t="s">
         <v>558</v>
       </c>
-      <c r="E19" s="5762" t="s">
+      <c r="E19" s="6746" t="s">
         <v>598</v>
       </c>
-      <c r="F19" s="5802" t="s">
+      <c r="F19" s="6786" t="s">
         <v>635</v>
       </c>
-      <c r="G19" s="5842" t="s">
+      <c r="G19" s="6826" t="s">
         <v>672</v>
       </c>
-      <c r="H19" s="5882" t="s">
+      <c r="H19" s="6866" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="5603" t="s">
+      <c r="A20" s="6587" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="5643" t="s">
+      <c r="B20" s="6627" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="5683" t="s">
+      <c r="C20" s="6667" t="s">
         <v>519</v>
       </c>
-      <c r="D20" s="5723" t="s">
+      <c r="D20" s="6707" t="s">
         <v>559</v>
       </c>
-      <c r="E20" s="5763" t="s">
+      <c r="E20" s="6747" t="s">
         <v>599</v>
       </c>
-      <c r="F20" s="5803" t="s">
+      <c r="F20" s="6787" t="s">
         <v>636</v>
       </c>
-      <c r="G20" s="5843" t="s">
+      <c r="G20" s="6827" t="s">
         <v>673</v>
       </c>
-      <c r="H20" s="5883" t="s">
+      <c r="H20" s="6867" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="5604" t="s">
+      <c r="A21" s="6588" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="5644" t="s">
+      <c r="B21" s="6628" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="5684" t="s">
+      <c r="C21" s="6668" t="s">
         <v>520</v>
       </c>
-      <c r="D21" s="5724" t="s">
+      <c r="D21" s="6708" t="s">
         <v>560</v>
       </c>
-      <c r="E21" s="5764" t="s">
+      <c r="E21" s="6748" t="s">
         <v>600</v>
       </c>
-      <c r="F21" s="5804" t="s">
+      <c r="F21" s="6788" t="s">
         <v>637</v>
       </c>
-      <c r="G21" s="5844" t="s">
+      <c r="G21" s="6828" t="s">
         <v>674</v>
       </c>
-      <c r="H21" s="5884" t="s">
+      <c r="H21" s="6868" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="5605" t="s">
+      <c r="A22" s="6589" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="5645" t="s">
+      <c r="B22" s="6629" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="5685" t="s">
-        <v>521</v>
-      </c>
-      <c r="D22" s="5725" t="s">
-        <v>561</v>
-      </c>
-      <c r="E22" s="5765" t="s">
-        <v>601</v>
-      </c>
-      <c r="F22" s="5805" t="s">
-        <v>638</v>
-      </c>
-      <c r="G22" s="5845" t="s">
-        <v>675</v>
-      </c>
-      <c r="H22" s="5885" t="s">
-        <v>715</v>
+      <c r="C22" s="6669" t="s">
+        <v>881</v>
+      </c>
+      <c r="D22" s="6709" t="s">
+        <v>901</v>
+      </c>
+      <c r="E22" s="6749" t="s">
+        <v>921</v>
+      </c>
+      <c r="F22" s="6789" t="s">
+        <v>941</v>
+      </c>
+      <c r="G22" s="6829" t="s">
+        <v>958</v>
+      </c>
+      <c r="H22" s="6869" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="5606" t="s">
+      <c r="A23" s="6590" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="5646" t="s">
+      <c r="B23" s="6630" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="5686" t="s">
-        <v>522</v>
-      </c>
-      <c r="D23" s="5726" t="s">
-        <v>562</v>
-      </c>
-      <c r="E23" s="5766" t="s">
-        <v>602</v>
-      </c>
-      <c r="F23" s="5806" t="s">
-        <v>622</v>
-      </c>
-      <c r="G23" s="5846" t="s">
-        <v>676</v>
-      </c>
-      <c r="H23" s="5886" t="s">
-        <v>716</v>
+      <c r="C23" s="6670" t="s">
+        <v>882</v>
+      </c>
+      <c r="D23" s="6710" t="s">
+        <v>902</v>
+      </c>
+      <c r="E23" s="6750" t="s">
+        <v>922</v>
+      </c>
+      <c r="F23" s="6790" t="s">
+        <v>942</v>
+      </c>
+      <c r="G23" s="6830" t="s">
+        <v>959</v>
+      </c>
+      <c r="H23" s="6870" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="5607" t="s">
+      <c r="A24" s="6591" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="5647" t="s">
+      <c r="B24" s="6631" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="5687" t="s">
-        <v>523</v>
-      </c>
-      <c r="D24" s="5727" t="s">
-        <v>563</v>
-      </c>
-      <c r="E24" s="5767" t="s">
-        <v>603</v>
-      </c>
-      <c r="F24" s="5807" t="s">
+      <c r="C24" s="6671" t="s">
+        <v>883</v>
+      </c>
+      <c r="D24" s="6711" t="s">
+        <v>903</v>
+      </c>
+      <c r="E24" s="6751" t="s">
+        <v>923</v>
+      </c>
+      <c r="F24" s="6791" t="s">
         <v>622</v>
       </c>
-      <c r="G24" s="5847" t="s">
-        <v>677</v>
-      </c>
-      <c r="H24" s="5887" t="s">
-        <v>717</v>
+      <c r="G24" s="6831" t="s">
+        <v>960</v>
+      </c>
+      <c r="H24" s="6871" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="5608" t="s">
+      <c r="A25" s="6592" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="5648" t="s">
+      <c r="B25" s="6632" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="5688" t="s">
-        <v>524</v>
-      </c>
-      <c r="D25" s="5728" t="s">
-        <v>564</v>
-      </c>
-      <c r="E25" s="5768" t="s">
-        <v>604</v>
-      </c>
-      <c r="F25" s="5808" t="s">
-        <v>639</v>
-      </c>
-      <c r="G25" s="5848" t="s">
-        <v>678</v>
-      </c>
-      <c r="H25" s="5888" t="s">
-        <v>718</v>
+      <c r="C25" s="6672" t="s">
+        <v>884</v>
+      </c>
+      <c r="D25" s="6712" t="s">
+        <v>904</v>
+      </c>
+      <c r="E25" s="6752" t="s">
+        <v>924</v>
+      </c>
+      <c r="F25" s="6792" t="s">
+        <v>943</v>
+      </c>
+      <c r="G25" s="6832" t="s">
+        <v>961</v>
+      </c>
+      <c r="H25" s="6872" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="5609" t="s">
+      <c r="A26" s="6593" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="5649" t="s">
+      <c r="B26" s="6633" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="5689" t="s">
-        <v>525</v>
-      </c>
-      <c r="D26" s="5729" t="s">
-        <v>565</v>
-      </c>
-      <c r="E26" s="5769" t="s">
-        <v>605</v>
-      </c>
-      <c r="F26" s="5809" t="s">
-        <v>640</v>
-      </c>
-      <c r="G26" s="5849" t="s">
-        <v>679</v>
-      </c>
-      <c r="H26" s="5889" t="s">
-        <v>719</v>
+      <c r="C26" s="6673" t="s">
+        <v>885</v>
+      </c>
+      <c r="D26" s="6713" t="s">
+        <v>905</v>
+      </c>
+      <c r="E26" s="6753" t="s">
+        <v>925</v>
+      </c>
+      <c r="F26" s="6793" t="s">
+        <v>944</v>
+      </c>
+      <c r="G26" s="6833" t="s">
+        <v>962</v>
+      </c>
+      <c r="H26" s="6873" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="5610" t="s">
+      <c r="A27" s="6594" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="5650" t="s">
+      <c r="B27" s="6634" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="5690" t="s">
-        <v>526</v>
-      </c>
-      <c r="D27" s="5730" t="s">
-        <v>566</v>
-      </c>
-      <c r="E27" s="5770" t="s">
-        <v>606</v>
-      </c>
-      <c r="F27" s="5810" t="s">
-        <v>641</v>
-      </c>
-      <c r="G27" s="5850" t="s">
-        <v>680</v>
-      </c>
-      <c r="H27" s="5890" t="s">
-        <v>720</v>
+      <c r="C27" s="6674" t="s">
+        <v>886</v>
+      </c>
+      <c r="D27" s="6714" t="s">
+        <v>906</v>
+      </c>
+      <c r="E27" s="6754" t="s">
+        <v>926</v>
+      </c>
+      <c r="F27" s="6794" t="s">
+        <v>945</v>
+      </c>
+      <c r="G27" s="6834" t="s">
+        <v>963</v>
+      </c>
+      <c r="H27" s="6874" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="5611" t="s">
+      <c r="A28" s="6595" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="5651" t="s">
+      <c r="B28" s="6635" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="5691" t="s">
-        <v>527</v>
-      </c>
-      <c r="D28" s="5731" t="s">
-        <v>567</v>
-      </c>
-      <c r="E28" s="5771" t="s">
-        <v>607</v>
-      </c>
-      <c r="F28" s="5811" t="s">
-        <v>622</v>
-      </c>
-      <c r="G28" s="5851" t="s">
-        <v>681</v>
-      </c>
-      <c r="H28" s="5891" t="s">
-        <v>721</v>
+      <c r="C28" s="6675" t="s">
+        <v>887</v>
+      </c>
+      <c r="D28" s="6715" t="s">
+        <v>907</v>
+      </c>
+      <c r="E28" s="6755" t="s">
+        <v>927</v>
+      </c>
+      <c r="F28" s="6795" t="s">
+        <v>946</v>
+      </c>
+      <c r="G28" s="6835" t="s">
+        <v>964</v>
+      </c>
+      <c r="H28" s="6875" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="5612" t="s">
+      <c r="A29" s="6596" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="5652" t="s">
+      <c r="B29" s="6636" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="5692" t="s">
-        <v>528</v>
-      </c>
-      <c r="D29" s="5732" t="s">
-        <v>568</v>
-      </c>
-      <c r="E29" s="5772" t="s">
-        <v>608</v>
-      </c>
-      <c r="F29" s="5812" t="s">
-        <v>642</v>
-      </c>
-      <c r="G29" s="5852" t="s">
-        <v>682</v>
-      </c>
-      <c r="H29" s="5892" t="s">
-        <v>722</v>
+      <c r="C29" s="6676" t="s">
+        <v>888</v>
+      </c>
+      <c r="D29" s="6716" t="s">
+        <v>908</v>
+      </c>
+      <c r="E29" s="6756" t="s">
+        <v>928</v>
+      </c>
+      <c r="F29" s="6796" t="s">
+        <v>947</v>
+      </c>
+      <c r="G29" s="6836" t="s">
+        <v>965</v>
+      </c>
+      <c r="H29" s="6876" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="5613" t="s">
+      <c r="A30" s="6597" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="5653" t="s">
+      <c r="B30" s="6637" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="5693" t="s">
-        <v>529</v>
-      </c>
-      <c r="D30" s="5733" t="s">
-        <v>569</v>
-      </c>
-      <c r="E30" s="5773" t="s">
-        <v>609</v>
-      </c>
-      <c r="F30" s="5813" t="s">
-        <v>643</v>
-      </c>
-      <c r="G30" s="5853" t="s">
-        <v>683</v>
-      </c>
-      <c r="H30" s="5893" t="s">
-        <v>723</v>
+      <c r="C30" s="6677" t="s">
+        <v>889</v>
+      </c>
+      <c r="D30" s="6717" t="s">
+        <v>909</v>
+      </c>
+      <c r="E30" s="6757" t="s">
+        <v>929</v>
+      </c>
+      <c r="F30" s="6797" t="s">
+        <v>948</v>
+      </c>
+      <c r="G30" s="6837" t="s">
+        <v>966</v>
+      </c>
+      <c r="H30" s="6877" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="5614" t="s">
+      <c r="A31" s="6598" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="5654" t="s">
+      <c r="B31" s="6638" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="5694" t="s">
-        <v>530</v>
-      </c>
-      <c r="D31" s="5734" t="s">
-        <v>570</v>
-      </c>
-      <c r="E31" s="5774" t="s">
-        <v>610</v>
-      </c>
-      <c r="F31" s="5814" t="s">
-        <v>644</v>
-      </c>
-      <c r="G31" s="5854" t="s">
-        <v>684</v>
-      </c>
-      <c r="H31" s="5894" t="s">
-        <v>724</v>
+      <c r="C31" s="6678" t="s">
+        <v>890</v>
+      </c>
+      <c r="D31" s="6718" t="s">
+        <v>910</v>
+      </c>
+      <c r="E31" s="6758" t="s">
+        <v>930</v>
+      </c>
+      <c r="F31" s="6798" t="s">
+        <v>949</v>
+      </c>
+      <c r="G31" s="6838" t="s">
+        <v>967</v>
+      </c>
+      <c r="H31" s="6878" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="5615" t="s">
+      <c r="A32" s="6599" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="5655" t="s">
+      <c r="B32" s="6639" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="5695" t="s">
-        <v>531</v>
-      </c>
-      <c r="D32" s="5735" t="s">
-        <v>571</v>
-      </c>
-      <c r="E32" s="5775" t="s">
-        <v>611</v>
-      </c>
-      <c r="F32" s="5815" t="s">
-        <v>645</v>
-      </c>
-      <c r="G32" s="5855" t="s">
-        <v>685</v>
-      </c>
-      <c r="H32" s="5895" t="s">
-        <v>725</v>
+      <c r="C32" s="6679" t="s">
+        <v>998</v>
+      </c>
+      <c r="D32" s="6719" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E32" s="6759" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F32" s="6799" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G32" s="6839" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H32" s="6879" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="5616" t="s">
+      <c r="A33" s="6600" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="5656" t="s">
+      <c r="B33" s="6640" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="5696" t="s">
-        <v>532</v>
-      </c>
-      <c r="D33" s="5736" t="s">
-        <v>572</v>
-      </c>
-      <c r="E33" s="5776" t="s">
-        <v>612</v>
-      </c>
-      <c r="F33" s="5816" t="s">
-        <v>646</v>
-      </c>
-      <c r="G33" s="5856" t="s">
-        <v>686</v>
-      </c>
-      <c r="H33" s="5896" t="s">
-        <v>726</v>
+      <c r="C33" s="6680" t="s">
+        <v>999</v>
+      </c>
+      <c r="D33" s="6720" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E33" s="6760" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F33" s="6800" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G33" s="6840" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H33" s="6880" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="5617" t="s">
+      <c r="A34" s="6601" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="5657" t="s">
+      <c r="B34" s="6641" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="5697" t="s">
-        <v>533</v>
-      </c>
-      <c r="D34" s="5737" t="s">
-        <v>573</v>
-      </c>
-      <c r="E34" s="5777" t="s">
-        <v>613</v>
-      </c>
-      <c r="F34" s="5817" t="s">
-        <v>647</v>
-      </c>
-      <c r="G34" s="5857" t="s">
-        <v>687</v>
-      </c>
-      <c r="H34" s="5897" t="s">
-        <v>727</v>
+      <c r="C34" s="6681" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="6721" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E34" s="6761" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F34" s="6801" t="s">
+        <v>622</v>
+      </c>
+      <c r="G34" s="6841" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H34" s="6881" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="5618" t="s">
+      <c r="A35" s="6602" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="5658" t="s">
+      <c r="B35" s="6642" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="5698" t="s">
-        <v>534</v>
-      </c>
-      <c r="D35" s="5738" t="s">
-        <v>574</v>
-      </c>
-      <c r="E35" s="5778" t="s">
-        <v>614</v>
-      </c>
-      <c r="F35" s="5818" t="s">
-        <v>648</v>
-      </c>
-      <c r="G35" s="5858" t="s">
-        <v>688</v>
-      </c>
-      <c r="H35" s="5898" t="s">
-        <v>728</v>
+      <c r="C35" s="6682" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D35" s="6722" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E35" s="6762" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F35" s="6802" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G35" s="6842" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H35" s="6882" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="5619" t="s">
+      <c r="A36" s="6603" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="5659" t="s">
+      <c r="B36" s="6643" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="5699" t="s">
-        <v>535</v>
-      </c>
-      <c r="D36" s="5739" t="s">
-        <v>575</v>
-      </c>
-      <c r="E36" s="5779" t="s">
-        <v>615</v>
-      </c>
-      <c r="F36" s="5819" t="s">
-        <v>649</v>
-      </c>
-      <c r="G36" s="5859" t="s">
-        <v>689</v>
-      </c>
-      <c r="H36" s="5899" t="s">
-        <v>729</v>
+      <c r="C36" s="6683" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D36" s="6723" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E36" s="6763" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F36" s="6803" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G36" s="6843" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H36" s="6883" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="5620" t="s">
+      <c r="A37" s="6604" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="5660" t="s">
+      <c r="B37" s="6644" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="5700" t="s">
-        <v>536</v>
-      </c>
-      <c r="D37" s="5740" t="s">
-        <v>576</v>
-      </c>
-      <c r="E37" s="5780" t="s">
-        <v>616</v>
-      </c>
-      <c r="F37" s="5820" t="s">
-        <v>650</v>
-      </c>
-      <c r="G37" s="5860" t="s">
-        <v>690</v>
-      </c>
-      <c r="H37" s="5900" t="s">
-        <v>730</v>
+      <c r="C37" s="6684" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D37" s="6724" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E37" s="6764" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F37" s="6804" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G37" s="6844" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H37" s="6884" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="5621" t="s">
+      <c r="A38" s="6605" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="5661" t="s">
+      <c r="B38" s="6645" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="5701" t="s">
-        <v>537</v>
-      </c>
-      <c r="D38" s="5741" t="s">
-        <v>577</v>
-      </c>
-      <c r="E38" s="5781" t="s">
-        <v>617</v>
-      </c>
-      <c r="F38" s="5821" t="s">
-        <v>651</v>
-      </c>
-      <c r="G38" s="5861" t="s">
-        <v>691</v>
-      </c>
-      <c r="H38" s="5901" t="s">
-        <v>731</v>
+      <c r="C38" s="6685" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D38" s="6725" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E38" s="6765" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F38" s="6805" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G38" s="6845" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H38" s="6885" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="5622" t="s">
+      <c r="A39" s="6606" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="5662" t="s">
+      <c r="B39" s="6646" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="5702" t="s">
-        <v>538</v>
-      </c>
-      <c r="D39" s="5742" t="s">
-        <v>578</v>
-      </c>
-      <c r="E39" s="5782" t="s">
-        <v>618</v>
-      </c>
-      <c r="F39" s="5822" t="s">
-        <v>652</v>
-      </c>
-      <c r="G39" s="5862" t="s">
-        <v>692</v>
-      </c>
-      <c r="H39" s="5902" t="s">
-        <v>732</v>
+      <c r="C39" s="6686" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D39" s="6726" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E39" s="6766" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F39" s="6806" t="s">
+        <v>622</v>
+      </c>
+      <c r="G39" s="6846" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H39" s="6886" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="5623" t="s">
+      <c r="A40" s="6607" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="5663" t="s">
+      <c r="B40" s="6647" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="5703" t="s">
-        <v>539</v>
-      </c>
-      <c r="D40" s="5743" t="s">
-        <v>579</v>
-      </c>
-      <c r="E40" s="5783" t="s">
-        <v>619</v>
-      </c>
-      <c r="F40" s="5823" t="s">
-        <v>653</v>
-      </c>
-      <c r="G40" s="5863" t="s">
-        <v>693</v>
-      </c>
-      <c r="H40" s="5903" t="s">
-        <v>733</v>
+      <c r="C40" s="6687" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D40" s="6727" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E40" s="6767" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F40" s="6807" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G40" s="6847" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H40" s="6887" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="5624" t="s">
+      <c r="A41" s="6608" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="5664" t="s">
+      <c r="B41" s="6648" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="5704" t="s">
-        <v>540</v>
-      </c>
-      <c r="D41" s="5744" t="s">
-        <v>580</v>
-      </c>
-      <c r="E41" s="5784" t="s">
-        <v>620</v>
-      </c>
-      <c r="F41" s="5824" t="s">
-        <v>654</v>
-      </c>
-      <c r="G41" s="5864" t="s">
-        <v>694</v>
-      </c>
-      <c r="H41" s="5904" t="s">
-        <v>734</v>
+      <c r="C41" s="6688" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D41" s="6728" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E41" s="6768" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F41" s="6808" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G41" s="6848" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H41" s="6888" t="s">
+        <v>1055</v>
       </c>
     </row>
   </sheetData>
